--- a/biology/Zoologie/Jeholosaurus/Jeholosaurus.xlsx
+++ b/biology/Zoologie/Jeholosaurus/Jeholosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholosaurus est un genre éteint de dinosaure ornithischien du Crétacé inférieur. C'était un petit ornithopode omnivore, probablement proche de la base des Euornithopoda.
 </t>
@@ -511,14 +523,11 @@
           <t>Histoire et découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux premiers spécimens de Jeholosaurus en 2000 à Lujiatun à proximité de Beipiao, dans la province de Liaoning, en Chine, et décrits par Xu Xing, Wang Xioalin et You Hailu. Son nom de genre signifie « lézard de Jehol », une ancienne province de Chine qui a aussi donné son nom au biote de Jehol auquel il appartient. Son nom d'espèce se réfère à l'aire géographique de Shangyuan où les fossiles ont été trouvés.
-Fossiles
-IVPP V 12529
-Le spécimen type sur lequel se base le genre est IVPP V 12529. il provient d'une couche de la formation d'Yixian vieille d'environ 125 Ma, c'est-à-dire au début de l'Aptien. Ces roches sont constituées de grès fluvial entrecoupés de tufs qui se sont  formées au cours d'une énorme éruption volcanique qui enterra tout dans un rayon de 80 à 95 km. Le squelette contient un crâne comprimé et d'un squelette post-crânien partiel.
-IVPP V 12530
-Le second spécimen, IVPP V 12530, est composé d'un crâne plus petit et mieux conservé. Tout comme le premier, il s'agissait d'un juvénile.
 </t>
         </is>
       </c>
@@ -544,13 +553,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire et découverte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>IVPP V 12529</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type sur lequel se base le genre est IVPP V 12529. il provient d'une couche de la formation d'Yixian vieille d'environ 125 Ma, c'est-à-dire au début de l'Aptien. Ces roches sont constituées de grès fluvial entrecoupés de tufs qui se sont  formées au cours d'une énorme éruption volcanique qui enterra tout dans un rayon de 80 à 95 km. Le squelette contient un crâne comprimé et d'un squelette post-crânien partiel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire et découverte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>IVPP V 12530</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le second spécimen, IVPP V 12530, est composé d'un crâne plus petit et mieux conservé. Tout comme le premier, il s'agissait d'un juvénile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taille
-Étant donné que les fossiles retrouvés appartiennent à de jeunes individus, la taille des adultes reste incertaine. L'holotype est long de 71,1 cm et haut de 35,6 cm ; son crâne est long de 6,3 cm et les mâchoires inférieures de 5,9 cm chacune. Les membres postérieurs sont de 33 cm
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Étant donné que les fossiles retrouvés appartiennent à de jeunes individus, la taille des adultes reste incertaine. L'holotype est long de 71,1 cm et haut de 35,6 cm ; son crâne est long de 6,3 cm et les mâchoires inférieures de 5,9 cm chacune. Les membres postérieurs sont de 33 cm
 Longueur : 71,1 cm
 Hauteur : 35,6 cm
 Longueur du crâne : 6,3 cm
@@ -558,74 +654,154 @@
 Longueur des membres antérieurs : 25,4 cm
 Longueur des membres postérieurs : 33 cm
 Longueur du fémur : 9 cm
-Longueur du tibia : 10,7 cm
-Anatomie
-Tête
-Les deux crânes sont et ont dû être partiellement restaurés. Les échantillons concernés montrent que les orbites étaient particulièrement grandes par rapport à la taille du crâne (40 % de la longueur de la tête) son museau, très court. Ces deux traits indiquent un jeune individu.
+Longueur du tibia : 10,7 cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tête</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux crânes sont et ont dû être partiellement restaurés. Les échantillons concernés montrent que les orbites étaient particulièrement grandes par rapport à la taille du crâne (40 % de la longueur de la tête) son museau, très court. Ces deux traits indiquent un jeune individu.
 Le pré-maxillaire comporte six dents et le maxillaire au moins treize. Les dents du pré-maxillaire sont fines et pointues (typiques des carnivores) tandis que celles du maxillaire sont plus plates et en forme d'éventail (telles celles des herbivores). Cela peut signifier qu'il était donc omnivore. En outre, étant donné la position de ses os, il avait probablement des joues charnues.
-Membres
-Le fémur est courbé et la taille du trochanter antérieur est légèrement inférieure à celle du grand trochanter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Membres</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fémur est courbé et la taille du trochanter antérieur est légèrement inférieure à celle du grand trochanter.
 Le pied possède quatre métatarsiens, le plus long est le troisième (5,5 cm).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jeholosaurus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholosaurus a vécu au Crétacé inférieur en Chine et a côtoyé les dinosaures Microraptor, Sinornithosaurus, Caudipteryx, Dilong, Beipiaosaurus, Psittacosaurus… dans un environnement boisé constitué principalement de conifères et où l'on a par ailleurs trouvé la plus ancienne plante carnivore connue.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jeholosaurus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jeholosaurus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Phylogenie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeholosaurus est un ornithischien comme le montre notamment sa structure pelvienne avec un os pubien pointant vers l'avant.
 Ses descripteurs n'ont pas attribué Jeholosaurus à une famille, se contentant de le décrire comme Ornithischia incertae sedis. L'utilisation de l'anatomie comparée permit de constater quelques similitudes avec les Euornithopoda basaux :
